--- a/docss/trend/poland/E_neuron.xlsx
+++ b/docss/trend/poland/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\poland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:F16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,216 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>0.58737831050530076</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="C2" s="6">
-        <v>0.6399773764424026</v>
+        <v>0.64</v>
       </c>
       <c r="D2" s="6">
-        <v>0.54595529241487384</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>0.54600000000000004</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>0.66952856769785285</v>
+        <v>0.67</v>
       </c>
       <c r="C3" s="6">
-        <v>0.72121320618316531</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D3" s="6">
-        <v>0.62879146495833993</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>0.629</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>0.69184413296170533</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="C4" s="6">
-        <v>0.78182351682335138</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="D4" s="6">
-        <v>0.61638594046235085</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>0.61599999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>0.61872059758752584</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C5" s="6">
-        <v>0.70295059960335493</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D5" s="6">
-        <v>0.55576978484168649</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>0.55600000000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>0.5349763766862452</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C6" s="6">
-        <v>0.61639499152079225</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D6" s="6">
-        <v>0.46127348812296987</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>0.61417872156016529</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="C7" s="6">
-        <v>0.70130707137286663</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="D7" s="6">
-        <v>0.54978577326983213</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>0.6984766770619899</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="C8" s="6">
-        <v>0.78303476888686419</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D8" s="6">
-        <v>0.62916584545746446</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>0.629</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>0.69565687049180269</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="C9" s="6">
-        <v>0.80119144544005394</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="D9" s="6">
-        <v>0.61257197405211627</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>0.61299999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>0.55418653599917889</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="C10" s="6">
-        <v>0.64208469819277525</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D10" s="6">
-        <v>0.48931832402013242</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>0.48899999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>0.63929280755110085</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>0.70319065637886524</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D11" s="6">
-        <v>0.58110386040061712</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>0.58099999999999996</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>0.62415025604423136</v>
+        <v>0.624</v>
       </c>
       <c r="C12" s="6">
-        <v>0.66202686913311481</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D12" s="6">
-        <v>0.58866708353161812</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>0.58899999999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>0.77354603633284569</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="C13" s="6">
-        <v>0.81904605776071548</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="D13" s="6">
-        <v>0.73218704387545586</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>0.75234570703469217</v>
+        <v>0.752</v>
       </c>
       <c r="C14" s="6">
-        <v>0.82664691656827927</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D14" s="6">
-        <v>0.69160562730394304</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
